--- a/src/main/resources/t2.xlsx
+++ b/src/main/resources/t2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/time-scheduler/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/target/classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90AA18-57DB-EA44-943A-07FFF60BE00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E7415-BC4F-BA49-9E12-1AD1CECE3571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17200" yWindow="460" windowWidth="16240" windowHeight="26060" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,36 +500,36 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1361,7 +1368,7 @@
       <c r="A34" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B34" t="s">
+      <c r="G34" t="s">
         <v>16</v>
       </c>
       <c r="H34" t="s">
@@ -1372,7 +1379,7 @@
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
-      <c r="B35" t="s">
+      <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
@@ -1383,7 +1390,7 @@
       <c r="A36" s="1">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B36" t="s">
+      <c r="G36" t="s">
         <v>16</v>
       </c>
       <c r="H36" t="s">
@@ -1394,7 +1401,7 @@
       <c r="A37" s="1">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B37" t="s">
+      <c r="G37" t="s">
         <v>16</v>
       </c>
       <c r="H37" t="s">
@@ -1405,7 +1412,12 @@
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" t="s">
         <v>16</v>
       </c>
       <c r="H38" t="s">
@@ -1416,7 +1428,12 @@
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s">
         <v>16</v>
       </c>
       <c r="H39" t="s">
@@ -1427,7 +1444,12 @@
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" t="s">
         <v>16</v>
       </c>
       <c r="H40" t="s">
@@ -1438,7 +1460,12 @@
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" t="s">
@@ -1449,20 +1476,21 @@
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" t="s">
+        <v>16</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -1472,20 +1500,21 @@
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B43" t="s">
-        <v>16</v>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" t="s">
+        <v>16</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -1495,20 +1524,21 @@
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" t="s">
+        <v>16</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
@@ -1518,20 +1548,21 @@
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B45" t="s">
-        <v>16</v>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" t="s">
+        <v>16</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -1541,17 +1572,17 @@
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B46" t="s">
-        <v>16</v>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -1561,17 +1592,17 @@
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B47" t="s">
-        <v>16</v>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -1581,17 +1612,17 @@
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B48" t="s">
-        <v>16</v>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -1601,17 +1632,17 @@
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B49" t="s">
-        <v>16</v>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -1621,14 +1652,15 @@
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>16</v>
+      <c r="B50" s="3"/>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -1638,14 +1670,15 @@
       <c r="A51" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
+      <c r="B51" s="3"/>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
@@ -1655,14 +1688,15 @@
       <c r="A52" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B52" t="s">
-        <v>16</v>
+      <c r="B52" s="3"/>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
       </c>
       <c r="H52" t="s">
         <v>16</v>
@@ -1672,14 +1706,15 @@
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B53" t="s">
-        <v>16</v>
+      <c r="B53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
@@ -1689,17 +1724,18 @@
       <c r="A54" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B54" t="s">
-        <v>16</v>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="G54" t="s">
+        <v>16</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
@@ -1709,17 +1745,18 @@
       <c r="A55" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B55" t="s">
-        <v>16</v>
+      <c r="B55" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="G55" t="s">
+        <v>16</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -1729,17 +1766,18 @@
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B56" t="s">
-        <v>16</v>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="G56" t="s">
+        <v>16</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -1749,17 +1787,18 @@
       <c r="A57" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="G57" t="s">
+        <v>16</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
@@ -1769,11 +1808,14 @@
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
@@ -1783,11 +1825,14 @@
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -1797,11 +1842,14 @@
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -1811,11 +1859,14 @@
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
       </c>
       <c r="H61" t="s">
         <v>16</v>
@@ -1825,11 +1876,14 @@
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="G62" t="s">
+        <v>16</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
@@ -1839,11 +1893,14 @@
       <c r="A63" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="G63" t="s">
+        <v>16</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
@@ -1853,11 +1910,14 @@
       <c r="A64" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="G64" t="s">
+        <v>16</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
@@ -1867,11 +1927,14 @@
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="G65" t="s">
+        <v>16</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
@@ -1881,14 +1944,15 @@
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="C66" s="3"/>
+      <c r="E66" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -1898,14 +1962,15 @@
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="C67" s="3"/>
+      <c r="E67" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
@@ -1915,14 +1980,15 @@
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="C68" s="3"/>
+      <c r="E68" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -1932,14 +1998,15 @@
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="C69" s="3"/>
+      <c r="E69" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
@@ -1949,14 +2016,14 @@
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -1966,14 +2033,14 @@
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -1983,14 +2050,14 @@
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -2000,14 +2067,14 @@
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
